--- a/normativa/Anexos/L01T03C08/L01T03C08A08.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A08.xlsx
@@ -301,29 +301,6 @@
         <family val="1"/>
       </rPr>
       <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
     </r>
   </si>
   <si>
@@ -470,6 +447,39 @@
   </si>
   <si>
     <t>(*) Llenar cuando  tenga operaciones activas y/o pasivas y otros servicios. Fuente de información:……………………………</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -815,115 +825,115 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,7 +1006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1284,11 +1294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="70" zoomScaleNormal="25" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScale="115" zoomScaleNormal="25" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="3.7109375" style="1"/>
     <col min="15" max="15" width="6.28515625" style="1" customWidth="1"/>
@@ -1324,88 +1334,88 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
     </row>
     <row r="3" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1430,46 +1440,46 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="51"/>
+      <c r="A5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="60"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1512,88 +1522,88 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="67"/>
     </row>
     <row r="8" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="58"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="67"/>
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1678,88 +1688,88 @@
       <c r="AL10" s="21"/>
     </row>
     <row r="11" spans="1:38" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="48"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="57"/>
     </row>
     <row r="12" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="55"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="64"/>
     </row>
     <row r="13" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1844,386 +1854,386 @@
       <c r="AL14" s="25"/>
     </row>
     <row r="15" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="55"/>
+      <c r="A15" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="64"/>
     </row>
     <row r="16" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="55"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="64"/>
     </row>
     <row r="17" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="55"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="64"/>
     </row>
     <row r="18" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="55"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="64"/>
     </row>
     <row r="19" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="55"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="64"/>
     </row>
     <row r="20" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="70"/>
+    </row>
+    <row r="21" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="61"/>
-    </row>
-    <row r="21" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="70"/>
+    </row>
+    <row r="22" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="61"/>
-    </row>
-    <row r="22" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="73"/>
+    </row>
+    <row r="23" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="64"/>
-    </row>
-    <row r="23" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="55"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="64"/>
     </row>
     <row r="24" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2346,172 +2356,172 @@
       <c r="AL26" s="25"/>
     </row>
     <row r="27" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="55"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="64"/>
     </row>
     <row r="28" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="55"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="64"/>
     </row>
     <row r="29" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="55"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="64"/>
     </row>
     <row r="30" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="55"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="64"/>
     </row>
     <row r="31" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
@@ -2597,7 +2607,7 @@
     </row>
     <row r="33" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2638,46 +2648,46 @@
       <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47"/>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="47"/>
-      <c r="AL34" s="48"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="57"/>
     </row>
     <row r="35" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -2735,31 +2745,31 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="43" t="s">
+      <c r="P36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43" t="s">
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43" t="s">
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43" t="s">
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43" t="s">
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
       <c r="AG36" s="12"/>
@@ -2770,38 +2780,38 @@
       <c r="AL36" s="12"/>
     </row>
     <row r="37" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="43"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12"/>
@@ -2812,38 +2822,38 @@
       <c r="AL37" s="12"/>
     </row>
     <row r="38" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
@@ -2854,23 +2864,23 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -2896,46 +2906,46 @@
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="73"/>
-      <c r="AG40" s="73"/>
-      <c r="AH40" s="73"/>
-      <c r="AI40" s="73"/>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="73"/>
+      <c r="A40" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
     </row>
     <row r="41" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -2979,7 +2989,7 @@
     </row>
     <row r="42" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3020,34 +3030,34 @@
       <c r="AL42" s="12"/>
     </row>
     <row r="43" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
@@ -3062,48 +3072,48 @@
       <c r="AL43" s="12"/>
     </row>
     <row r="44" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="44" t="s">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44" t="s">
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44" t="s">
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44" t="s">
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44" t="s">
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
       <c r="AG44" s="12"/>
@@ -3114,38 +3124,38 @@
       <c r="AL44" s="12"/>
     </row>
     <row r="45" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
@@ -3156,38 +3166,38 @@
       <c r="AL45" s="12"/>
     </row>
     <row r="46" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
       <c r="AG46" s="8"/>
@@ -3198,38 +3208,38 @@
       <c r="AL46" s="12"/>
     </row>
     <row r="47" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
@@ -3240,43 +3250,43 @@
       <c r="AL47" s="12"/>
     </row>
     <row r="48" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="65" t="s">
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65" t="s">
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65" t="s">
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65" t="s">
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
@@ -3290,35 +3300,35 @@
       <c r="AL48" s="12"/>
     </row>
     <row r="49" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="43"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
@@ -3332,35 +3342,35 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="43"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
@@ -3374,35 +3384,35 @@
       <c r="AL50" s="8"/>
     </row>
     <row r="51" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -3416,33 +3426,33 @@
       <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="74" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="65" t="s">
+      <c r="Q52" s="44"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
       <c r="V52" s="13"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
@@ -3462,29 +3472,29 @@
       <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
       <c r="V53" s="7"/>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
@@ -3504,29 +3514,29 @@
       <c r="AL53" s="2"/>
     </row>
     <row r="54" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
       <c r="V54" s="7"/>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
@@ -3546,29 +3556,29 @@
       <c r="AL54" s="2"/>
     </row>
     <row r="55" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
       <c r="V55" s="7"/>
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
@@ -3588,23 +3598,23 @@
       <c r="AL55" s="2"/>
     </row>
     <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -3630,23 +3640,23 @@
       <c r="AL56" s="8"/>
     </row>
     <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
@@ -3672,23 +3682,23 @@
       <c r="AL57" s="8"/>
     </row>
     <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
@@ -3714,32 +3724,32 @@
       <c r="AL58" s="8"/>
     </row>
     <row r="59" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
+      <c r="A59" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
@@ -3824,7 +3834,7 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
       <c r="AB61" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
@@ -3838,33 +3848,33 @@
       <c r="AL61" s="8"/>
     </row>
     <row r="62" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="75"/>
+      <c r="V62" s="75"/>
+      <c r="W62" s="75"/>
+      <c r="X62" s="75"/>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="75"/>
+      <c r="AA62" s="75"/>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="8"/>
@@ -3998,46 +4008,46 @@
       <c r="AL65" s="8"/>
     </row>
     <row r="66" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
-      <c r="AC66" s="41"/>
-      <c r="AD66" s="41"/>
-      <c r="AE66" s="41"/>
-      <c r="AF66" s="41"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="41"/>
-      <c r="AI66" s="41"/>
-      <c r="AJ66" s="41"/>
-      <c r="AK66" s="41"/>
-      <c r="AL66" s="41"/>
+      <c r="A66" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="74"/>
+      <c r="T66" s="74"/>
+      <c r="U66" s="74"/>
+      <c r="V66" s="74"/>
+      <c r="W66" s="74"/>
+      <c r="X66" s="74"/>
+      <c r="Y66" s="74"/>
+      <c r="Z66" s="74"/>
+      <c r="AA66" s="74"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="74"/>
+      <c r="AD66" s="74"/>
+      <c r="AE66" s="74"/>
+      <c r="AF66" s="74"/>
+      <c r="AG66" s="74"/>
+      <c r="AH66" s="74"/>
+      <c r="AI66" s="74"/>
+      <c r="AJ66" s="74"/>
+      <c r="AK66" s="74"/>
+      <c r="AL66" s="74"/>
     </row>
     <row r="67" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -4176,6 +4186,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A59:X59"/>
+    <mergeCell ref="A66:AL66"/>
+    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A58:O58"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="A43:Z43"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="A34:AL34"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A11:AL11"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A15:AL15"/>
+    <mergeCell ref="A16:AL16"/>
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A18:AL18"/>
+    <mergeCell ref="A19:AL19"/>
+    <mergeCell ref="A30:AL30"/>
+    <mergeCell ref="A21:AL21"/>
+    <mergeCell ref="A22:AL22"/>
+    <mergeCell ref="A23:AL23"/>
+    <mergeCell ref="A20:AL20"/>
+    <mergeCell ref="A27:AL27"/>
+    <mergeCell ref="A28:AL28"/>
+    <mergeCell ref="A29:AL29"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="A40:AL40"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A54:O54"/>
+    <mergeCell ref="A55:O55"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S48:U48"/>
     <mergeCell ref="S55:U55"/>
     <mergeCell ref="P53:R53"/>
     <mergeCell ref="AB47:AD47"/>
@@ -4200,85 +4289,6 @@
     <mergeCell ref="Y48:AA48"/>
     <mergeCell ref="P48:R48"/>
     <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A53:O53"/>
-    <mergeCell ref="A54:O54"/>
-    <mergeCell ref="A55:O55"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="A40:AL40"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A34:AL34"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A11:AL11"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A15:AL15"/>
-    <mergeCell ref="A16:AL16"/>
-    <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A18:AL18"/>
-    <mergeCell ref="A19:AL19"/>
-    <mergeCell ref="A30:AL30"/>
-    <mergeCell ref="A21:AL21"/>
-    <mergeCell ref="A22:AL22"/>
-    <mergeCell ref="A23:AL23"/>
-    <mergeCell ref="A20:AL20"/>
-    <mergeCell ref="A27:AL27"/>
-    <mergeCell ref="A28:AL28"/>
-    <mergeCell ref="A29:AL29"/>
-    <mergeCell ref="A59:X59"/>
-    <mergeCell ref="A66:AL66"/>
-    <mergeCell ref="A62:AA62"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="A43:Z43"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4287,7 +4297,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/476/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 8
